--- a/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.1547103929443572</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7275415915586761</v>
+        <v>0.7275415915586757</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.070266221110142</v>
+        <v>-3.024831900754239</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.631998779044056</v>
+        <v>-4.85663564261489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.041167750341323</v>
+        <v>-3.07390300917561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.000229223666421</v>
+        <v>-0.7861710339277088</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.7328855603491455</v>
+        <v>-0.7561030453966814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8112290996663414</v>
+        <v>-0.8465993077487607</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5749477270718431</v>
+        <v>-0.5338834209209815</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.152128432032065</v>
+        <v>0.9287482171908072</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.431573091947155</v>
+        <v>2.264696447257982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.338494437017865</v>
+        <v>2.260745937240665</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.463115377676509</v>
+        <v>3.689561389769068</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1.140271609217618</v>
+        <v>0.9994768246199678</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.778594114072203</v>
+        <v>2.380639608029786</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.619192297981276</v>
+        <v>6.12442589611157</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>0.7401218419575539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6491813506390852</v>
+        <v>0.6491813506390859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>4.313725554239404</v>
@@ -745,7 +745,7 @@
         <v>3.285633898735305</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2422575099868821</v>
+        <v>0.2422575099868823</v>
       </c>
     </row>
     <row r="8">
@@ -756,26 +756,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8583298145981813</v>
+        <v>0.7150759198242195</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.715755639545129</v>
+        <v>-1.545064168668178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.08296411898402965</v>
+        <v>-0.05444178161210241</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.690506219314734</v>
+        <v>-1.692914067272149</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06890380889266412</v>
+        <v>0.03712234933996093</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8190378881591951</v>
+        <v>-0.7633160039103674</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.443899789142757</v>
+        <v>-0.4200850738626702</v>
       </c>
     </row>
     <row r="9">
@@ -786,24 +786,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.224800079306361</v>
+        <v>4.150126050140882</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.530428251960936</v>
+        <v>1.557637446823367</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.736998263600434</v>
+        <v>1.744115653006372</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.069614535116515</v>
+        <v>3.000048928018857</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>3.406377608341997</v>
+        <v>3.957805199820045</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>1.926767651484651</v>
+        <v>2.032555518358989</v>
       </c>
     </row>
     <row r="10">
@@ -827,7 +827,7 @@
         <v>1.215943160473009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.2880530819044294</v>
+        <v>-0.288053081904429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.0300983385167977</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1164819630460182</v>
+        <v>-0.1164819630460181</v>
       </c>
     </row>
     <row r="11">
@@ -852,24 +852,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.288578486196948</v>
+        <v>-1.362881443058681</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.383941619998765</v>
+        <v>-3.919117013114769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3197010229206929</v>
+        <v>0.3664143772397447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.657517338711026</v>
+        <v>-2.629714973366179</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.842205328972943</v>
+        <v>-0.8180012772952419</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.6542820488821933</v>
+        <v>-0.668630243449997</v>
       </c>
     </row>
     <row r="12">
@@ -880,24 +880,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.381617276280477</v>
+        <v>1.288039316482702</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.781041833669448</v>
+        <v>1.710698248379313</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.013465372304781</v>
+        <v>2.809945726566996</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.676486321571763</v>
+        <v>1.46919663161588</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.655121192803027</v>
+        <v>2.155080900068027</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.478583228153929</v>
+        <v>1.08302521789087</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>0.5766278407572697</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>2.37154564120476</v>
+        <v>2.371545641204761</v>
       </c>
     </row>
     <row r="14">
@@ -944,26 +944,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.201831989643655</v>
+        <v>-2.104092263833393</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1382777500700026</v>
+        <v>-0.1301019663662133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.326026890899378</v>
+        <v>-1.157101180565121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.01475995874416221</v>
+        <v>-0.02470070683423104</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.2351914395792639</v>
+        <v>-0.2376412081778949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3632655900834778</v>
+        <v>-0.3206217027825913</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5859845247945179</v>
+        <v>-0.5895866160624796</v>
       </c>
     </row>
     <row r="15">
@@ -974,23 +974,23 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8126053504307029</v>
+        <v>0.9038326579934629</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.915466119136814</v>
+        <v>4.030823387618928</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.208732216525677</v>
+        <v>4.260652004224729</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.277525255848979</v>
+        <v>2.333447956909246</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>9.61587160241054</v>
+        <v>9.889670750452883</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.571379913934597</v>
+        <v>2.54921068381073</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
     </row>
@@ -1038,20 +1038,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.762870154746042</v>
+        <v>-1.757922148544501</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.371119676204219</v>
+        <v>-4.050256012485782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9587015985047869</v>
+        <v>-1.071119527277884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.980580899468779</v>
+        <v>-1.976180475749311</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.6866483884380402</v>
+        <v>-0.743842162209679</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="inlineStr"/>
@@ -1064,20 +1064,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.808799636865619</v>
+        <v>2.963400697548144</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.236626882358019</v>
+        <v>3.138593394697831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.654553783538297</v>
+        <v>3.263641414345366</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5936490909945047</v>
+        <v>0.5841370847201858</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1.952571677756475</v>
+        <v>1.629306151555468</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
         <v>0.8003393187267487</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1978508337739111</v>
+        <v>0.1978508337739097</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-1</v>
@@ -1115,7 +1115,7 @@
         <v>2.161494395196083</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.05480820794477631</v>
+        <v>0.05480820794477593</v>
       </c>
     </row>
     <row r="20">
@@ -1126,24 +1126,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.81395691614689</v>
+        <v>-2.157441353263569</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.48464233335453</v>
+        <v>-1.550345303545171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.3672422613756134</v>
+        <v>-0.3696080218266052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.468440184912258</v>
+        <v>-2.377452911397476</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.6269323216246916</v>
+        <v>-0.5915149912095873</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.4936819861492034</v>
+        <v>-0.4879338467518008</v>
       </c>
     </row>
     <row r="21">
@@ -1157,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.23788436015837</v>
+        <v>3.608614461890495</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.920944964716599</v>
+        <v>2.696218768836383</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.593032558334863</v>
+        <v>2.77963176133677</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>4.916950910365007</v>
+        <v>5.917973202316597</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.177251232472028</v>
+        <v>1.391791728368601</v>
       </c>
     </row>
     <row r="22">
@@ -1195,7 +1195,7 @@
         <v>0.3870189601560878</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.452988498800559</v>
+        <v>2.45298849880056</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.005532157339275928</v>
@@ -1207,7 +1207,7 @@
         <v>0.7625422207652611</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6899433737460587</v>
+        <v>0.6899433737460591</v>
       </c>
     </row>
     <row r="23">
@@ -1218,28 +1218,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9580543816165734</v>
+        <v>-0.9129990910351533</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.645297507806967</v>
+        <v>-1.812328417662166</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5299117024226508</v>
+        <v>-0.5319070198896169</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2229559927662426</v>
+        <v>0.2475539307439286</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8253960688742636</v>
+        <v>-0.8333954703234639</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6886900037129522</v>
+        <v>-0.7338411736307915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.748040938407136</v>
+        <v>-0.7443389229351085</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.049837717785592</v>
+        <v>-0.01563466429720663</v>
       </c>
     </row>
     <row r="24">
@@ -1250,28 +1250,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.90283276695963</v>
+        <v>0.9303627722155979</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9106402491399277</v>
+        <v>1.003017575481896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.329871060834367</v>
+        <v>1.24007548487673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.446991452631192</v>
+        <v>4.930028221243506</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.559512908804532</v>
+        <v>2.940788568608451</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.096548846089504</v>
+        <v>1.237061828074445</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>8.148594993974514</v>
+        <v>8.780182407531935</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.754294747481821</v>
+        <v>1.899336212855911</v>
       </c>
     </row>
     <row r="25">
@@ -1295,7 +1295,7 @@
         <v>0.5146702379642949</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.02733186834261922</v>
+        <v>-0.02733186834261853</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1033600606605268</v>
@@ -1307,7 +1307,7 @@
         <v>0.5535357936067964</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.01374965948638984</v>
+        <v>-0.01374965948638949</v>
       </c>
     </row>
     <row r="26">
@@ -1318,28 +1318,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9585627898361679</v>
+        <v>-1.032228680273651</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.3521849624551577</v>
+        <v>-0.4507735076278788</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.5202331232474058</v>
+        <v>-0.6089120236749543</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.370476042466603</v>
+        <v>-1.426126895652495</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6790034122560075</v>
+        <v>-0.7029194512606043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3834686715011348</v>
+        <v>-0.4102968826246961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4856477213256305</v>
+        <v>-0.4901640743123763</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4771482762716463</v>
+        <v>-0.5092420249613393</v>
       </c>
     </row>
     <row r="27">
@@ -1350,28 +1350,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.265365368064012</v>
+        <v>1.217510618403449</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.341701402655197</v>
+        <v>2.193407841222092</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.67793171169093</v>
+        <v>1.748033738741397</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.213982327515409</v>
+        <v>1.116532255127245</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.540145436754229</v>
+        <v>2.746225385005217</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.25800208975866</v>
+        <v>4.715481072817733</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.681763288009811</v>
+        <v>4.462242000296716</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9996912074003294</v>
+        <v>0.8778880720129737</v>
       </c>
     </row>
     <row r="28">
@@ -1407,7 +1407,7 @@
         <v>0.7197047690679905</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3307697597021627</v>
+        <v>0.3307697597021628</v>
       </c>
     </row>
     <row r="29">
@@ -1418,28 +1418,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.230306716954498</v>
+        <v>-0.2143586718588527</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5527224269434304</v>
+        <v>-0.4393699511170699</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1210868426539431</v>
+        <v>0.1400049259964181</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.05568166508225453</v>
+        <v>0.03726080414364863</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2268405880230958</v>
+        <v>-0.1869246622831103</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2432882781696188</v>
+        <v>-0.2084376417479641</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06856731246161446</v>
+        <v>0.09684218182360603</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.01823395917887952</v>
+        <v>0.01438110337602742</v>
       </c>
     </row>
     <row r="30">
@@ -1450,28 +1450,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7948929925822437</v>
+        <v>0.7535688539032906</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9173260542850902</v>
+        <v>0.9185822683438597</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.280662567690044</v>
+        <v>1.214946541113324</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.41872168631242</v>
+        <v>1.46664471705703</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.160531774282355</v>
+        <v>1.130946403396456</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.597450532323816</v>
+        <v>0.627781821567273</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.835380001201342</v>
+        <v>1.652417011264639</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.7340616804251606</v>
+        <v>0.790939169379569</v>
       </c>
     </row>
     <row r="31">
